--- a/80.reference/Web/20210830_브라우저동작_김찬기.xlsx
+++ b/80.reference/Web/20210830_브라우저동작_김찬기.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="21330" windowHeight="9720" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="9720" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="브라우저의 기능과 요소" sheetId="1" r:id="rId4"/>
@@ -139,9 +139,237 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>Multy-Thread Concept?</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">&lt;동작 과정&gt;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+렌더링 엔진은 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>통신으로부터 요청한 문서의 내용을 얻는 것으로 시작</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">하는데 
+문서의 내용은 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>보통 8KB 단위로 전송</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>된다.</x:t>
+    </x:r>
   </x:si>
   <x:si>
+    <x:t>화면표시담당</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">&lt;브라우저의 기본 구조&gt;
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">브라우저의 주요 구성 요소는 다음과 같다.
+   </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">사용자 인터페이스 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">- 주소 표시줄, 이전/다음 버튼, 북마크 메뉴 등. 
+                               요청한 페이지를 보여주는 창을 제외한 나머지 모든 부분이다.
+   </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>브라우저 엔진</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> - 사용자 인터페이스와 렌더링 엔진 사이의 동작을 제어.
+  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 렌더링 엔진 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">- 요청한 콘텐츠를 표시. 
+                      예를 들어 HTML을 요청하면 HTML과 CSS를 파싱하여 화면에 표시함.
+   </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>통신</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> - HTTP 요청과 같은 네트워크 호출에 사용됨. 
+            이것은 플랫폼 독립적인 인터페이스이고 각 플랫폼 하부에서 실행됨.
+  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> UI 백엔드</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> - 콤보 박스와 창 같은 기본적인 장치를 그림. 
+                   플랫폼에서 명시하지 않은 일반적인 인터페이스로서, 
+                  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> OS 사용자 인터페이스 체계를 사용.(window꺼)
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+   </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>자바스크립트 해석기</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> - 자바스크립트 코드를 해석하고 실행.
+  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 자료 저장소</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> - 이 부분은 자료를 저장하는 계층이다. 
+                      쿠키를 저장하는 것과 같이 모든 종류의 자원을 
+                      하드 디스크에 저장할 필요가 있다. 
+                      HTML5 명세에는 브라우저가 지원하는 '웹 데이터 베이스'가 정의되어 있다.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
     <x:r>
       <x:rPr>
         <x:rFont val="맑은 고딕"/>
@@ -278,12 +506,28 @@
       <x:t xml:space="preserve">이 글에서 다루는 브라우저인 </x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff289b6e"/>
-        <x:b val="1"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff289b6e"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff289b6e"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t>파이어폭스</x:t>
     </x:r>
     <x:r>
@@ -346,12 +590,28 @@
       <x:t xml:space="preserve">는 모질라에서 직접 만든 </x:t>
     </x:r>
     <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff289b6e"/>
-        <x:b val="1"/>
-      </x:rPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff289b6e"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ff289b6e"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
       <x:t>게코(Gecko) 엔진</x:t>
     </x:r>
     <x:r>
@@ -433,6 +693,9 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>safari &amp; chrome</x:t>
+  </x:si>
+  <x:si>
     <x:t>fire fox</x:t>
   </x:si>
   <x:si>
@@ -607,28 +870,12 @@
 렌더 트리 생성이 끝나면 # </x:t>
     </x:r>
     <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <x:b val="1"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <x:b val="1"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+        <x:b val="1"/>
+      </x:rPr>
       <x:t>배치</x:t>
     </x:r>
     <x:r>
@@ -659,28 +906,12 @@
       <x:t xml:space="preserve">각 # </x:t>
     </x:r>
     <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <x:b val="1"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <x:b val="1"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+        <x:b val="1"/>
+      </x:rPr>
       <x:t>노드</x:t>
     </x:r>
     <x:r>
@@ -810,277 +1041,14 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>safari &amp; chrome</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">&lt;동작 과정&gt;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">
-렌더링 엔진은 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>통신으로부터 요청한 문서의 내용을 얻는 것으로 시작</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">하는데 
-문서의 내용은 </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <x:b val="1"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <x:b val="1"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>보통 8KB 단위로 전송</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>된다.</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">&lt;브라우저의 기본 구조&gt;
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">브라우저의 주요 구성 요소는 다음과 같다.
-   </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve">사용자 인터페이스 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">- 주소 표시줄, 이전/다음 버튼, 북마크 메뉴 등. 
-                               요청한 페이지를 보여주는 창을 제외한 나머지 모든 부분이다.
-   </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>브라우저 엔진</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - 사용자 인터페이스와 렌더링 엔진 사이의 동작을 제어.
-  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 렌더링 엔진 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">- 요청한 콘텐츠를 표시. 
-                      예를 들어 HTML을 요청하면 HTML과 CSS를 파싱하여 화면에 표시함.
-   </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>통신</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - HTTP 요청과 같은 네트워크 호출에 사용됨. 
-            이것은 플랫폼 독립적인 인터페이스이고 각 플랫폼 하부에서 실행됨.
-  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> UI 백엔드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - 콤보 박스와 창 같은 기본적인 장치를 그림. 
-                   플랫폼에서 명시하지 않은 일반적인 인터페이스로서, 
-                  </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <x:b val="1"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="11"/>
-            <x:color rgb="ffff0000"/>
-            <x:b val="1"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve"> OS 사용자 인터페이스 체계를 사용.(window꺼)
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">
-   </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>자바스크립트 해석기</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - 자바스크립트 코드를 해석하고 실행.
-  </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 자료 저장소</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> - 이 부분은 자료를 저장하는 계층이다. 
-                      쿠키를 저장하는 것과 같이 모든 종류의 자원을 
-                      하드 디스크에 저장할 필요가 있다. 
-                      HTML5 명세에는 브라우저가 지원하는 '웹 데이터 베이스'가 정의되어 있다.</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>화면표시담당</x:t>
+    <x:t>Multy-Thread Concept?</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="15">
+  <x:fonts count="14">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -1132,28 +1100,12 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ffff0000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ffff0000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="14"/>
+      <x:color rgb="ffff0000"/>
+      <x:b val="1"/>
+    </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -1172,12 +1124,28 @@
       <x:color rgb="ffff0000"/>
       <x:b val="1"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff289b6e"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff289b6e"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff289b6e"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1217,28 +1185,6 @@
           <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
           <x:color rgb="ffff0000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1298,7 +1244,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="7">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1728,7 +1677,100 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12113559" y="0"/>
+          <a:ext cx="13962529" cy="11172265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3409949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp fPublished="0">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="화살표 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12707470" y="9793941"/>
+          <a:ext cx="6342529" cy="403411"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="ed7d31"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1759,7 +1801,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21166" y="1693333"/>
-          <a:ext cx="14890751" cy="3005666"/>
+          <a:ext cx="14890751" cy="2995083"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1771,7 +1813,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1849,99 +1891,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12113559" y="0"/>
-          <a:ext cx="13962529" cy="11172265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>423926</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>3405251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>623951</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>138176</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp fPublished="0">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="화살표 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="12696264" y="9782735"/>
-          <a:ext cx="6342529" cy="403411"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="63500">
-          <a:solidFill>
-            <a:srgbClr val="ed7d31"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2241,21 +2190,21 @@
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C4" activeCellId="0" sqref="C4:C4"/>
+      <x:selection activeCell="D10" activeCellId="0" sqref="D10:D10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="49.88671875" style="2" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="229.19999999999999">
-      <x:c r="A1" s="4" t="s">
+      <x:c r="A1" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2271,30 +2220,30 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="79.25" style="2" customWidth="1"/>
+    <x:col min="1" max="1" width="79.25" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="409.25">
-      <x:c r="A1" s="3" t="s">
-        <x:v>8</x:v>
+      <x:c r="A1" s="4" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="49.149999999999999">
-      <x:c r="A2" s="3" t="s">
+      <x:c r="A2" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="4:5" ht="20.649999999999999">
-      <x:c r="D7" s="5" t="s">
-        <x:v>9</x:v>
+      <x:c r="D7" s="6" t="s">
+        <x:v>3</x:v>
       </x:c>
-      <x:c r="E7" s="5"/>
+      <x:c r="E7" s="6"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
     <x:mergeCell ref="D7:E7"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -2305,22 +2254,22 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D3" activeCellId="0" sqref="D3:D3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="204.0390625" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="88.25" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="261.94999999999999">
-      <x:c r="A1" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="A1" s="4" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2330,32 +2279,32 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:A11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E2" activeCellId="0" sqref="E2:E2"/>
+    <x:sheetView topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D16" activeCellId="0" sqref="D16:D16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="97.99609375" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="97.99609375" style="3" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" ht="65.5">
-      <x:c r="A1" s="3" t="s">
-        <x:v>7</x:v>
+      <x:c r="A1" s="4" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" ht="327.39999999999998">
-      <x:c r="A9" s="3" t="s">
-        <x:v>5</x:v>
+      <x:c r="A9" s="4" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
-      <x:c r="A11" s="2" t="s">
-        <x:v>2</x:v>
+      <x:c r="A11" s="3" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -2366,22 +2315,22 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="D20:N20"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="105" zoomScaleNormal="105" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="105" zoomScaleNormal="105" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="G3" activeCellId="0" sqref="G3:G3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="20" spans="4:14">
-      <x:c r="D20" t="s">
+      <x:c r="D20" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="N20" t="s">
-        <x:v>4</x:v>
+      <x:c r="N20" s="1" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
